--- a/Reference/2001N Matrix.xlsx
+++ b/Reference/2001N Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remo\Documents\GitHub\PET-2001N-Keyboard-PCB\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D02BE1D-6294-4DFA-893E-C5EDABC7C13F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A12DE2C-607C-4BDB-930D-B0893CEA0D4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{6E249929-B037-447C-8DAA-2846A8D4845F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>!</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>SHIFT</t>
   </si>
   <si>
     <t>OFF
@@ -95,6 +92,143 @@
   </si>
   <si>
     <t>[</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SPACE</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>RUN
+STOP</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>/\</t>
+  </si>
+  <si>
+    <t>RETURN</t>
+  </si>
+  <si>
+    <t>SHIFTR</t>
+  </si>
+  <si>
+    <t>SHIFTL</t>
+  </si>
+  <si>
+    <t>CLR
+HOME</t>
+  </si>
+  <si>
+    <t>CRSR
+/\ \/</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>CRSR
+&lt;&gt;</t>
+  </si>
+  <si>
+    <t>INST
+DEL</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -110,19 +244,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -152,13 +298,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +629,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="60.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -487,140 +639,246 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
